--- a/common_data/2025-09-20-finnish-local-museums.xlsx
+++ b/common_data/2025-09-20-finnish-local-museums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\vaeki\common_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D42D150-C8A7-48B8-8002-D6D3F954BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E69DA08-A90D-455E-A9AF-DC7973BA4E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="museums_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5292" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5293" uniqueCount="925">
   <si>
     <t>county_name</t>
   </si>
@@ -2767,9 +2767,6 @@
     <t>backlog</t>
   </si>
   <si>
-    <t>35V 536812 6785592</t>
-  </si>
-  <si>
     <t>Paimensaarentie 10, 54800 Savitaipale</t>
   </si>
   <si>
@@ -2783,6 +2780,21 @@
   </si>
   <si>
     <t>61.57796307187547, 24.563832330685766</t>
+  </si>
+  <si>
+    <t>61.20301248906551, 27.685316182256503</t>
+  </si>
+  <si>
+    <t>62.77080019341347, 22.488547951144618</t>
+  </si>
+  <si>
+    <t>62.93759242756441, 22.84115796782624</t>
+  </si>
+  <si>
+    <t>62.648049711759306, 23.84785809531404</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -3154,10 +3166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F882"/>
+  <dimension ref="A1:G882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C856" workbookViewId="0">
-      <selection activeCell="G865" sqref="G865"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3170,7 +3182,7 @@
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3189,8 +3201,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3210,7 +3225,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3230,7 +3245,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3244,13 +3259,13 @@
         <v>914</v>
       </c>
       <c r="E4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F4" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3270,7 +3285,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3290,7 +3305,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3310,7 +3325,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3330,7 +3345,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3350,7 +3365,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3370,7 +3385,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3390,7 +3405,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3410,7 +3425,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3430,7 +3445,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3450,7 +3465,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3470,7 +3485,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4741,10 +4756,10 @@
         <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E79" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="F79" t="s">
         <v>913</v>
@@ -4761,10 +4776,10 @@
         <v>120</v>
       </c>
       <c r="D80" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E80" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="F80" t="s">
         <v>913</v>
@@ -4781,10 +4796,10 @@
         <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E81" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="F81" t="s">
         <v>913</v>
@@ -4901,7 +4916,7 @@
         <v>127</v>
       </c>
       <c r="D87" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E87" t="s">
         <v>913</v>
@@ -9504,10 +9519,10 @@
         <v>914</v>
       </c>
       <c r="E317" t="s">
+        <v>918</v>
+      </c>
+      <c r="F317" t="s">
         <v>919</v>
-      </c>
-      <c r="F317" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -20684,10 +20699,10 @@
         <v>914</v>
       </c>
       <c r="E876" t="s">
+        <v>916</v>
+      </c>
+      <c r="F876" t="s">
         <v>917</v>
-      </c>
-      <c r="F876" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.3">
